--- a/export/admin.xlsx
+++ b/export/admin.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1 Copy" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="cvrcek" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.001"/>
@@ -530,7 +530,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:E129"/>
+  <dimension ref="A1:H129"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -558,7 +558,11 @@
           <t xml:space="preserve"> Škola : </t>
         </is>
       </c>
-      <c r="B2" s="12" t="n"/>
+      <c r="B2" s="12" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
       <c r="C2" s="9" t="n"/>
       <c r="D2" s="9" t="n"/>
       <c r="E2" s="10" t="n"/>
@@ -569,7 +573,11 @@
           <t xml:space="preserve">Adresa: </t>
         </is>
       </c>
-      <c r="B3" s="12" t="n"/>
+      <c r="B3" s="12" t="inlineStr">
+        <is>
+          <t>adresa 72727</t>
+        </is>
+      </c>
       <c r="C3" s="9" t="n"/>
       <c r="D3" s="9" t="n"/>
       <c r="E3" s="10" t="n"/>
@@ -580,7 +588,11 @@
           <t xml:space="preserve">Kategorie : </t>
         </is>
       </c>
-      <c r="B4" s="12" t="n"/>
+      <c r="B4" s="12" t="inlineStr">
+        <is>
+          <t>cvrcek</t>
+        </is>
+      </c>
       <c r="C4" s="9" t="n"/>
       <c r="D4" s="9" t="n"/>
       <c r="E4" s="10" t="n"/>
@@ -610,610 +622,1019 @@
           <t>Žáci</t>
         </is>
       </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Petr</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Peroutka</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>septima</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2003-02-13</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>85</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>120</v>
       </c>
+      <c r="B9" t="n">
+        <v>21</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Marek</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Peroutka</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>septima</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2003-02-13</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>119</v>
       </c>
+      <c r="B10" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>118</v>
       </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>117</v>
       </c>
+      <c r="B12" t="n">
+        <v>59</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>116</v>
       </c>
+      <c r="B13" t="n">
+        <v>84</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>115</v>
       </c>
+      <c r="B14" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>114</v>
       </c>
+      <c r="B15" t="n">
+        <v>136</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>113</v>
       </c>
+      <c r="B16" t="n">
+        <v>114</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>112</v>
       </c>
+      <c r="B17" t="n">
+        <v>126</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>111</v>
       </c>
+      <c r="B18" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>110</v>
       </c>
+      <c r="B19" t="n">
+        <v>93</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>109</v>
       </c>
+      <c r="B20" t="n">
+        <v>79</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>108</v>
       </c>
+      <c r="B21" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>107</v>
       </c>
+      <c r="B22" t="n">
+        <v>111</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>106</v>
       </c>
+      <c r="B23" t="n">
+        <v>116</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>105</v>
       </c>
+      <c r="B24" t="n">
+        <v>75</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>104</v>
       </c>
+      <c r="B25" t="n">
+        <v>101</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>103</v>
       </c>
+      <c r="B26" t="n">
+        <v>131</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>102</v>
       </c>
+      <c r="B27" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>101</v>
       </c>
+      <c r="B28" t="n">
+        <v>129</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>100</v>
       </c>
+      <c r="B29" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>99</v>
       </c>
+      <c r="B30" t="n">
+        <v>143</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>98</v>
       </c>
+      <c r="B31" t="n">
+        <v>75</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>97</v>
       </c>
+      <c r="B32" t="n">
+        <v>119</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>96</v>
       </c>
+      <c r="B33" t="n">
+        <v>80</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>95</v>
       </c>
+      <c r="B34" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>94</v>
       </c>
+      <c r="B35" t="n">
+        <v>134</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>93</v>
       </c>
+      <c r="B36" t="n">
+        <v>52</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>92</v>
       </c>
+      <c r="B37" t="n">
+        <v>89</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>91</v>
       </c>
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>90</v>
       </c>
+      <c r="B39" t="n">
+        <v>78</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>89</v>
       </c>
+      <c r="B40" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>88</v>
       </c>
+      <c r="B41" t="n">
+        <v>110</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>87</v>
       </c>
+      <c r="B42" t="n">
+        <v>82</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>86</v>
       </c>
+      <c r="B43" t="n">
+        <v>97</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>85</v>
       </c>
+      <c r="B44" t="n">
+        <v>95</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>84</v>
       </c>
+      <c r="B45" t="n">
+        <v>103</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>83</v>
       </c>
+      <c r="B46" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>82</v>
       </c>
+      <c r="B47" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>81</v>
       </c>
+      <c r="B48" t="n">
+        <v>150</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>80</v>
       </c>
+      <c r="B49" t="n">
+        <v>78</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>79</v>
       </c>
+      <c r="B50" t="n">
+        <v>81</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>78</v>
       </c>
+      <c r="B51" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>77</v>
       </c>
+      <c r="B52" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>76</v>
       </c>
+      <c r="B53" t="n">
+        <v>143</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>75</v>
       </c>
+      <c r="B54" t="n">
+        <v>53</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>74</v>
       </c>
+      <c r="B55" t="n">
+        <v>136</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>73</v>
       </c>
+      <c r="B56" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>72</v>
       </c>
+      <c r="B57" t="n">
+        <v>70</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>71</v>
       </c>
+      <c r="B58" t="n">
+        <v>56</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>70</v>
       </c>
+      <c r="B59" t="n">
+        <v>134</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>69</v>
       </c>
+      <c r="B60" t="n">
+        <v>108</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>68</v>
       </c>
+      <c r="B61" t="n">
+        <v>134</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>67</v>
       </c>
+      <c r="B62" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>66</v>
       </c>
+      <c r="B63" t="n">
+        <v>89</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>65</v>
       </c>
+      <c r="B64" t="n">
+        <v>68</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>64</v>
       </c>
+      <c r="B65" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>63</v>
       </c>
+      <c r="B66" t="n">
+        <v>66</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>62</v>
       </c>
+      <c r="B67" t="n">
+        <v>145</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>61</v>
       </c>
+      <c r="B68" t="n">
+        <v>70</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>60</v>
       </c>
+      <c r="B69" t="n">
+        <v>129</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>59</v>
       </c>
+      <c r="B70" t="n">
+        <v>74</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>58</v>
       </c>
+      <c r="B71" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>57</v>
       </c>
+      <c r="B72" t="n">
+        <v>59</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>56</v>
       </c>
+      <c r="B73" t="n">
+        <v>136</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>55</v>
       </c>
+      <c r="B74" t="n">
+        <v>97</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>54</v>
       </c>
+      <c r="B75" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>53</v>
       </c>
+      <c r="B76" t="n">
+        <v>115</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
         <v>52</v>
       </c>
+      <c r="B77" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
         <v>51</v>
       </c>
+      <c r="B78" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
         <v>50</v>
       </c>
+      <c r="B79" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
         <v>49</v>
       </c>
+      <c r="B80" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
         <v>48</v>
       </c>
+      <c r="B81" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
         <v>47</v>
       </c>
+      <c r="B82" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
         <v>46</v>
       </c>
+      <c r="B83" t="n">
+        <v>63</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
         <v>45</v>
       </c>
+      <c r="B84" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
         <v>44</v>
       </c>
+      <c r="B85" t="n">
+        <v>131</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
         <v>43</v>
       </c>
+      <c r="B86" t="n">
+        <v>135</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
         <v>42</v>
       </c>
+      <c r="B87" t="n">
+        <v>77</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
         <v>41</v>
       </c>
+      <c r="B88" t="n">
+        <v>70</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
         <v>40</v>
       </c>
+      <c r="B89" t="n">
+        <v>56</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
         <v>39</v>
       </c>
+      <c r="B90" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
         <v>38</v>
       </c>
+      <c r="B91" t="n">
+        <v>73</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
         <v>37</v>
       </c>
+      <c r="B92" t="n">
+        <v>53</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
         <v>36</v>
       </c>
+      <c r="B93" t="n">
+        <v>129</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
         <v>35</v>
       </c>
+      <c r="B94" t="n">
+        <v>90</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
         <v>34</v>
       </c>
+      <c r="B95" t="n">
+        <v>148</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
         <v>33</v>
       </c>
+      <c r="B96" t="n">
+        <v>67</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
         <v>32</v>
       </c>
+      <c r="B97" t="n">
+        <v>102</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
         <v>31</v>
       </c>
+      <c r="B98" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
         <v>30</v>
       </c>
+      <c r="B99" t="n">
+        <v>145</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
         <v>29</v>
       </c>
+      <c r="B100" t="n">
+        <v>108</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
         <v>28</v>
       </c>
+      <c r="B101" t="n">
+        <v>81</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
         <v>27</v>
       </c>
+      <c r="B102" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
         <v>26</v>
       </c>
+      <c r="B103" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
         <v>25</v>
       </c>
+      <c r="B104" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
         <v>24</v>
       </c>
+      <c r="B105" t="n">
+        <v>108</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
         <v>23</v>
       </c>
+      <c r="B106" t="n">
+        <v>74</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
         <v>22</v>
       </c>
+      <c r="B107" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
         <v>21</v>
       </c>
+      <c r="B108" t="n">
+        <v>140</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
         <v>20</v>
       </c>
+      <c r="B109" t="n">
+        <v>82</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
         <v>19</v>
       </c>
+      <c r="B110" t="n">
+        <v>82</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
         <v>18</v>
       </c>
+      <c r="B111" t="n">
+        <v>124</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
         <v>17</v>
       </c>
+      <c r="B112" t="n">
+        <v>143</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
         <v>16</v>
       </c>
+      <c r="B113" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
         <v>15</v>
       </c>
+      <c r="B114" t="n">
+        <v>148</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
         <v>14</v>
       </c>
+      <c r="B115" t="n">
+        <v>72</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
         <v>13</v>
       </c>
+      <c r="B116" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
         <v>12</v>
       </c>
+      <c r="B117" t="n">
+        <v>147</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
         <v>11</v>
       </c>
+      <c r="B118" t="n">
+        <v>71</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
         <v>10</v>
       </c>
+      <c r="B119" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
         <v>9</v>
       </c>
+      <c r="B120" t="n">
+        <v>79</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
         <v>8</v>
       </c>
+      <c r="B121" t="n">
+        <v>146</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
         <v>7</v>
       </c>
+      <c r="B122" t="n">
+        <v>109</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
         <v>6</v>
       </c>
+      <c r="B123" t="n">
+        <v>114</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
         <v>5</v>
       </c>
+      <c r="B124" t="n">
+        <v>62</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
         <v>4</v>
       </c>
+      <c r="B125" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
         <v>3</v>
       </c>
+      <c r="B126" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
         <v>2</v>
       </c>
+      <c r="B127" t="n">
+        <v>121</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
         <v>1</v>
       </c>
+      <c r="B128" t="n">
+        <v>103</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
         <v>0</v>
+      </c>
+      <c r="B129" t="n">
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/export/admin.xlsx
+++ b/export/admin.xlsx
@@ -530,7 +530,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:H129"/>
+  <dimension ref="A1:H130"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,16 +643,10 @@
         </is>
       </c>
       <c r="H8" t="n">
-        <v>85</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
-        <v>120</v>
-      </c>
-      <c r="B9" t="n">
-        <v>21</v>
-      </c>
       <c r="D9" t="inlineStr">
         <is>
           <t>Marek</t>
@@ -674,372 +668,393 @@
         </is>
       </c>
       <c r="H9" t="n">
-        <v>24</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B10" t="n">
-        <v>46</v>
+        <v>92</v>
+      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>75</v>
+      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B12" t="n">
-        <v>59</v>
+        <v>29</v>
+      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B13" t="n">
-        <v>84</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B14" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B15" t="n">
-        <v>136</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B16" t="n">
-        <v>114</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B17" t="n">
-        <v>126</v>
+        <v>117</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B18" t="n">
-        <v>54</v>
+        <v>97</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B19" t="n">
-        <v>93</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B20" t="n">
-        <v>79</v>
+        <v>95</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B21" t="n">
-        <v>21</v>
+        <v>141</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B22" t="n">
-        <v>111</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B23" t="n">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B24" t="n">
-        <v>75</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B25" t="n">
-        <v>101</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B26" t="n">
-        <v>131</v>
+        <v>91</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B27" t="n">
-        <v>54</v>
+        <v>116</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B28" t="n">
-        <v>129</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B29" t="n">
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B30" t="n">
-        <v>143</v>
+        <v>132</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B31" t="n">
-        <v>75</v>
+        <v>129</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B32" t="n">
-        <v>119</v>
+        <v>70</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B33" t="n">
-        <v>80</v>
+        <v>121</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B34" t="n">
-        <v>27</v>
+        <v>128</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B35" t="n">
-        <v>134</v>
+        <v>53</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B36" t="n">
-        <v>52</v>
+        <v>102</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B37" t="n">
-        <v>89</v>
+        <v>39</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B38" t="n">
-        <v>36</v>
+        <v>106</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B39" t="n">
-        <v>78</v>
+        <v>57</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
+        <v>90</v>
+      </c>
+      <c r="B40" t="n">
         <v>89</v>
-      </c>
-      <c r="B40" t="n">
-        <v>19</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B41" t="n">
-        <v>110</v>
+        <v>138</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B42" t="n">
-        <v>82</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B43" t="n">
-        <v>97</v>
+        <v>43</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B44" t="n">
-        <v>95</v>
+        <v>117</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B45" t="n">
-        <v>103</v>
+        <v>95</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B46" t="n">
-        <v>20</v>
+        <v>118</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B47" t="n">
-        <v>23</v>
+        <v>52</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B48" t="n">
-        <v>150</v>
+        <v>123</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B49" t="n">
-        <v>78</v>
+        <v>25</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B50" t="n">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B51" t="n">
-        <v>27</v>
+        <v>96</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B52" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B53" t="n">
-        <v>143</v>
+        <v>130</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B54" t="n">
-        <v>53</v>
+        <v>118</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B55" t="n">
         <v>136</v>
@@ -1047,594 +1062,602 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B56" t="n">
-        <v>51</v>
+        <v>118</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B57" t="n">
-        <v>70</v>
+        <v>58</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B58" t="n">
-        <v>56</v>
+        <v>67</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B59" t="n">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B60" t="n">
-        <v>108</v>
+        <v>20</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B61" t="n">
-        <v>134</v>
+        <v>140</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B62" t="n">
-        <v>40</v>
+        <v>125</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B63" t="n">
-        <v>89</v>
+        <v>58</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B64" t="n">
-        <v>68</v>
+        <v>143</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B65" t="n">
-        <v>27</v>
+        <v>146</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>66</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B67" t="n">
-        <v>145</v>
+        <v>85</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B68" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B69" t="n">
-        <v>129</v>
+        <v>97</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B70" t="n">
-        <v>74</v>
+        <v>91</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B71" t="n">
-        <v>3</v>
+        <v>44</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B72" t="n">
-        <v>59</v>
+        <v>77</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B73" t="n">
-        <v>136</v>
+        <v>80</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B74" t="n">
-        <v>97</v>
+        <v>81</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B75" t="n">
-        <v>5</v>
+        <v>90</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B76" t="n">
-        <v>115</v>
+        <v>120</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B77" t="n">
-        <v>55</v>
+        <v>147</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B78" t="n">
-        <v>54</v>
+        <v>135</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B79" t="n">
-        <v>23</v>
+        <v>110</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B80" t="n">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B81" t="n">
-        <v>18</v>
+        <v>67</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B82" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B83" t="n">
-        <v>63</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B84" t="n">
-        <v>3</v>
+        <v>131</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B85" t="n">
-        <v>131</v>
+        <v>35</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B86" t="n">
-        <v>135</v>
+        <v>59</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B87" t="n">
-        <v>77</v>
+        <v>44</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B88" t="n">
-        <v>70</v>
+        <v>91</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B89" t="n">
-        <v>56</v>
+        <v>17</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B90" t="n">
-        <v>4</v>
+        <v>141</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B91" t="n">
-        <v>73</v>
+        <v>64</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B92" t="n">
-        <v>53</v>
+        <v>77</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B93" t="n">
-        <v>129</v>
+        <v>6</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B94" t="n">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B95" t="n">
-        <v>148</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B96" t="n">
-        <v>67</v>
+        <v>23</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B97" t="n">
-        <v>102</v>
+        <v>78</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B98" t="n">
-        <v>28</v>
+        <v>141</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B99" t="n">
-        <v>145</v>
+        <v>96</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B100" t="n">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B101" t="n">
-        <v>81</v>
+        <v>53</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B102" t="n">
-        <v>36</v>
+        <v>129</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B103" t="n">
-        <v>32</v>
+        <v>138</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B104" t="n">
-        <v>42</v>
+        <v>75</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B105" t="n">
-        <v>108</v>
+        <v>141</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B106" t="n">
-        <v>74</v>
+        <v>102</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B107" t="n">
-        <v>3</v>
+        <v>33</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B108" t="n">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B109" t="n">
-        <v>82</v>
+        <v>106</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B110" t="n">
-        <v>82</v>
+        <v>56</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B111" t="n">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B112" t="n">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B113" t="n">
-        <v>16</v>
+        <v>143</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B114" t="n">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B115" t="n">
-        <v>72</v>
+        <v>52</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B116" t="n">
-        <v>44</v>
+        <v>91</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B117" t="n">
-        <v>147</v>
+        <v>26</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B118" t="n">
-        <v>71</v>
+        <v>143</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B119" t="n">
-        <v>51</v>
+        <v>96</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B120" t="n">
-        <v>79</v>
+        <v>120</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B121" t="n">
-        <v>146</v>
+        <v>66</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B122" t="n">
-        <v>109</v>
+        <v>54</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B123" t="n">
-        <v>114</v>
+        <v>75</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B124" t="n">
-        <v>62</v>
+        <v>144</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B125" t="n">
-        <v>21</v>
+        <v>138</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B126" t="n">
-        <v>6</v>
+        <v>82</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B127" t="n">
-        <v>121</v>
+        <v>141</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B128" t="n">
-        <v>103</v>
+        <v>94</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
+        <v>1</v>
+      </c>
+      <c r="B129" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
         <v>0</v>
       </c>
-      <c r="B129" t="n">
-        <v>110</v>
+      <c r="B130" t="n">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
